--- a/5.0.0/StructureDefinition-employee-status.xlsx
+++ b/5.0.0/StructureDefinition-employee-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Code for the status of the employee</t>
+    <t>Status of the employee based on one or more code systems. Example codes include HIPAA (HipaaEmployeeStatusCodeSystem), Payer (WhPayerEmployeeStatusCodeSystem) or customer-specific codes.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -325,24 +325,8 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-employee-status-code</t>
   </si>
 </sst>
 </file>
@@ -653,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -663,7 +647,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -686,7 +670,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.96875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1282,14 +1266,16 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB6" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>97</v>
@@ -1304,109 +1290,9 @@
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
         <v>96</v>
       </c>
     </row>
